--- a/Tsury_DB.xlsx
+++ b/Tsury_DB.xlsx
@@ -40,10 +40,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>total</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -781,6 +777,10 @@
   </si>
   <si>
     <t>id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>team</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1748,8 +1748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0"/>
@@ -1772,10 +1772,10 @@
   <sheetData>
     <row r="1" spans="1:17" ht="31" customHeight="1">
       <c r="A1" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="H1" s="1"/>
       <c r="O1" s="2"/>
@@ -1783,26 +1783,26 @@
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1812,25 +1812,25 @@
     </row>
     <row r="3" spans="1:17" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A3" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>127</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>128</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="26" t="s">
-        <v>130</v>
-      </c>
       <c r="G3" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1846,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="10">
         <v>40585.791666666664</v>
@@ -1858,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -1870,7 +1870,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="10">
         <v>40585.791666666664</v>
@@ -1882,83 +1882,83 @@
         <v>2</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I5" s="2"/>
     </row>
     <row r="7" spans="1:17" ht="23" customHeight="1">
       <c r="H7" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:17" ht="23" customHeight="1">
       <c r="A8" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="23" customHeight="1">
       <c r="A9" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I9" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="21" t="s">
         <v>102</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A10" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="F10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="H10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>8</v>
-      </c>
       <c r="I10" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1972,10 +1972,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="15">
         <v>1500000</v>
@@ -1987,13 +1987,13 @@
         <v>40585.791666666664</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I11" s="11">
         <v>0</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="23" customHeight="1">
@@ -2004,10 +2004,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" s="15">
         <v>1500000</v>
@@ -2019,82 +2019,82 @@
         <v>40585.791666666664</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I12" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" s="11" t="s">
         <v>105</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="23" customHeight="1">
       <c r="A15" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="23" customHeight="1">
       <c r="A16" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B16" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>119</v>
-      </c>
       <c r="D16" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="G16" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="H16" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="I16" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="J16" s="27" t="s">
         <v>43</v>
-      </c>
-      <c r="J16" s="27" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A17" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="E17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="G17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="H17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="I17" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="28" t="s">
-        <v>26</v>
-      </c>
       <c r="J17" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -2108,16 +2108,16 @@
         <v>1</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="E18" s="7">
         <v>3</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G18" s="6">
         <v>22500</v>
@@ -2142,16 +2142,16 @@
         <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="E19" s="7">
         <v>1.5</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G19" s="6">
         <v>27500</v>
@@ -2170,19 +2170,19 @@
     </row>
     <row r="22" spans="1:17" ht="23" customHeight="1">
       <c r="A22" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q22" s="13"/>
     </row>
     <row r="23" spans="1:17" ht="23" customHeight="1">
       <c r="A23" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -2190,13 +2190,13 @@
     </row>
     <row r="24" spans="1:17" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A24" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -2221,7 +2221,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -2235,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -2249,107 +2249,107 @@
         <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="29" spans="1:17" ht="23" customHeight="1">
       <c r="A29" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
     <row r="30" spans="1:17" ht="23" customHeight="1">
       <c r="A30" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B30" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="D30" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="24" t="s">
-        <v>15</v>
-      </c>
       <c r="E30" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F30" s="21" t="s">
         <v>3</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J30" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K30" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="K30" s="27" t="s">
+      <c r="L30" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="M30" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="L30" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="M30" s="21" t="s">
+      <c r="N30" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="N30" s="21" t="s">
-        <v>48</v>
-      </c>
       <c r="O30" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="23" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>20</v>
-      </c>
       <c r="D31" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>1</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K31" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L31" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="M31" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M31" s="9" t="s">
+      <c r="N31" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N31" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="O31" s="28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="23" customHeight="1">
@@ -2357,16 +2357,16 @@
         <v>1</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="20" t="s">
-        <v>18</v>
-      </c>
       <c r="E32" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>2</v>
@@ -2375,16 +2375,16 @@
         <v>1</v>
       </c>
       <c r="I32" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K32" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="J32" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K32" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="L32" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M32" s="6">
         <v>22500</v>
@@ -2405,16 +2405,16 @@
         <v>2</v>
       </c>
       <c r="I33" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J33" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="K33" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="K33" s="29" t="s">
-        <v>66</v>
-      </c>
       <c r="L33" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M33" s="6">
         <v>27500</v>
@@ -2474,29 +2474,29 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2542,60 +2542,60 @@
     </row>
     <row r="2" spans="1:4" ht="23" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="23" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="23" customHeight="1">
       <c r="C4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="23" customHeight="1">
       <c r="C5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="23" customHeight="1">
       <c r="C6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="23" customHeight="1">
       <c r="C7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="23" customHeight="1">
       <c r="B9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="23" customHeight="1">
       <c r="B10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2624,12 +2624,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="23" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="23" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/Tsury_DB.xlsx
+++ b/Tsury_DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25516"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="780" windowWidth="28500" windowHeight="23000" tabRatio="500"/>
+    <workbookView xWindow="1500" yWindow="0" windowWidth="28500" windowHeight="23000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="DBテーブル" sheetId="1" r:id="rId1"/>
@@ -794,7 +794,7 @@
     <numFmt numFmtId="178" formatCode="0.0%"/>
     <numFmt numFmtId="179" formatCode="yyyy\-m\-d\ h:mm"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -848,8 +848,22 @@
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -898,6 +912,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -932,10 +958,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1027,12 +1055,17 @@
     <xf numFmtId="178" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1749,7 +1782,7 @@
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0"/>
@@ -2061,7 +2094,7 @@
       <c r="I16" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="27" t="s">
+      <c r="J16" s="21" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2093,7 +2126,7 @@
       <c r="I17" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="28" t="s">
+      <c r="J17" s="31" t="s">
         <v>36</v>
       </c>
       <c r="O17" s="1"/>
@@ -2129,7 +2162,7 @@
         <f>(H18-G18)/H18</f>
         <v>0.25</v>
       </c>
-      <c r="J18" s="31">
+      <c r="J18" s="32">
         <f>E18*H18</f>
         <v>90000</v>
       </c>
@@ -2163,7 +2196,7 @@
         <f>(H19-G19)/H19</f>
         <v>0.3125</v>
       </c>
-      <c r="J19" s="31">
+      <c r="J19" s="32">
         <f>E19*H19</f>
         <v>60000</v>
       </c>
@@ -2450,6 +2483,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
